--- a/Settings/datafeeds_settings/IE_RSE_settings.xlsx
+++ b/Settings/datafeeds_settings/IE_RSE_settings.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
